--- a/GUI_activescreen/Default.xlsx
+++ b/GUI_activescreen/Default.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
